--- a/backend/storage/app/xlsx/seed_cidades_ap.xlsx
+++ b/backend/storage/app/xlsx/seed_cidades_ap.xlsx
@@ -23,7 +23,7 @@
     <t>SERRANAVIENSE</t>
   </si>
   <si>
-    <t>aa49d210-be14-491e-b5b3-57ce7e5bac3b</t>
+    <t>5e6ab19a-646b-48c8-9d8a-68be8afc61de</t>
   </si>
   <si>
     <t>AMAPÁ</t>

--- a/backend/storage/app/xlsx/seed_cidades_ap.xlsx
+++ b/backend/storage/app/xlsx/seed_cidades_ap.xlsx
@@ -23,7 +23,7 @@
     <t>SERRANAVIENSE</t>
   </si>
   <si>
-    <t>5e6ab19a-646b-48c8-9d8a-68be8afc61de</t>
+    <t>db35f354-932b-4588-8131-21430e46a570</t>
   </si>
   <si>
     <t>AMAPÁ</t>

--- a/backend/storage/app/xlsx/seed_cidades_ap.xlsx
+++ b/backend/storage/app/xlsx/seed_cidades_ap.xlsx
@@ -23,7 +23,7 @@
     <t>SERRANAVIENSE</t>
   </si>
   <si>
-    <t>db35f354-932b-4588-8131-21430e46a570</t>
+    <t>b28138f3-174e-43ac-b0c5-91dddaa840ae</t>
   </si>
   <si>
     <t>AMAPÁ</t>

--- a/backend/storage/app/xlsx/seed_cidades_ap.xlsx
+++ b/backend/storage/app/xlsx/seed_cidades_ap.xlsx
@@ -23,7 +23,7 @@
     <t>SERRANAVIENSE</t>
   </si>
   <si>
-    <t>b28138f3-174e-43ac-b0c5-91dddaa840ae</t>
+    <t>3be974a6-622a-466e-8708-1d07af8fec95</t>
   </si>
   <si>
     <t>AMAPÁ</t>

--- a/backend/storage/app/xlsx/seed_cidades_ap.xlsx
+++ b/backend/storage/app/xlsx/seed_cidades_ap.xlsx
@@ -23,7 +23,7 @@
     <t>SERRANAVIENSE</t>
   </si>
   <si>
-    <t>3be974a6-622a-466e-8708-1d07af8fec95</t>
+    <t>82c65e7f-b4d1-432a-a649-5bf62b0e823b</t>
   </si>
   <si>
     <t>AMAPÁ</t>

--- a/backend/storage/app/xlsx/seed_cidades_ap.xlsx
+++ b/backend/storage/app/xlsx/seed_cidades_ap.xlsx
@@ -23,7 +23,7 @@
     <t>SERRANAVIENSE</t>
   </si>
   <si>
-    <t>82c65e7f-b4d1-432a-a649-5bf62b0e823b</t>
+    <t>c727b38e-ea28-4b13-9858-7966606376e6</t>
   </si>
   <si>
     <t>AMAPÁ</t>
